--- a/data/trans_dic/P36B01_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B01_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,2; 96,37</t>
+          <t>91,18; 96,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,63; 93,68</t>
+          <t>88,66; 93,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,77; 94,54</t>
+          <t>90,88; 94,54</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,54; 89,09</t>
+          <t>80,28; 88,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,24; 89,52</t>
+          <t>84,47; 89,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,99; 88,34</t>
+          <t>83,61; 88,64</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,8; 99,95</t>
+          <t>98,75; 99,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,48; 99,62</t>
+          <t>97,63; 99,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,43; 99,67</t>
+          <t>98,44; 99,68</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 99,28</t>
+          <t>96,04; 99,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,55; 99,11</t>
+          <t>94,61; 99,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,77; 98,87</t>
+          <t>96,17; 98,94</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>92,1; 97,81</t>
+          <t>90,81; 97,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,02; 98,28</t>
+          <t>94,29; 98,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,18; 97,62</t>
+          <t>94,16; 97,62</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,99; 99,83</t>
+          <t>98,03; 99,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,37; 99,09</t>
+          <t>95,29; 99,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97,28; 99,34</t>
+          <t>97,37; 99,3</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,47; 98,32</t>
+          <t>95,46; 98,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95,74; 98,6</t>
+          <t>95,82; 98,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,17; 98,22</t>
+          <t>96,15; 98,19</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>93,03; 96,42</t>
+          <t>93,07; 96,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>94,37; 97,15</t>
+          <t>94,59; 97,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,24; 96,48</t>
+          <t>94,35; 96,53</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>93,97; 95,83</t>
+          <t>94,06; 95,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>94,74; 96,14</t>
+          <t>94,72; 96,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>94,56; 95,75</t>
+          <t>94,68; 95,78</t>
         </is>
       </c>
     </row>
